--- a/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -534,12 +534,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,230,000</t>
+          <t>123,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026년 01월 24일</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>임꺽정외 2명</t>
+          <t>2명</t>
         </is>
       </c>
     </row>

--- a/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026년 01월 24일</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026년 01월 24일</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[01월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -534,12 +534,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>851,655,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026년 01월 24일</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2명</t>
+          <t>임꺽정 외 2명</t>
         </is>
       </c>
     </row>
